--- a/template.xlsx
+++ b/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morris/Desktop/未命名檔案夾/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morris/Desktop/sport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B0C908-23C7-2848-973A-9474EBD2ABB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22315E7C-3CF4-B540-8A89-03E801ECD8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="860" windowWidth="28540" windowHeight="16240" xr2:uid="{B2558816-19B4-B941-89D5-6C8DA2536C31}"/>
   </bookViews>
@@ -77,12 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>morrischen2.10@gmail.com</t>
-  </si>
-  <si>
-    <t>0965425240</t>
-  </si>
-  <si>
     <t>王淑婷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,14 +84,22 @@
     <t>隊員1</t>
   </si>
   <si>
-    <t>morrischen2.11@gmail.com</t>
-  </si>
-  <si>
-    <t>0965425241</t>
-  </si>
-  <si>
     <t>陳鎮濃</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>morrisxxx1@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>morrisxxx2@gmail.com</t>
+  </si>
+  <si>
+    <t>0965425123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0965425124</t>
   </si>
 </sst>
 </file>
@@ -483,7 +485,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -526,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2">
         <v>100</v>
@@ -540,19 +542,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3">
         <v>101</v>
@@ -561,8 +563,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="morrischen2.9@gmail.com" xr:uid="{B8DFA0E5-13ED-C947-8318-F1F4F677E63B}"/>
-    <hyperlink ref="D3" r:id="rId2" display="morrischen2.9@gmail.com" xr:uid="{BD7652D7-9808-C941-BF2C-15FEA0EFC3CB}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{B8DFA0E5-13ED-C947-8318-F1F4F677E63B}"/>
+    <hyperlink ref="D3" r:id="rId2" display="morrisxxx1@gmail.com" xr:uid="{6682B70F-CA07-DB4E-9968-53AB538D0181}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morris/Desktop/sport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljchen/Desktop/Study/sport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22315E7C-3CF4-B540-8A89-03E801ECD8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC4C920-4789-DE4E-A4E3-9CE7E5A8CEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="860" windowWidth="28540" windowHeight="16240" xr2:uid="{B2558816-19B4-B941-89D5-6C8DA2536C31}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="11400" xr2:uid="{B2558816-19B4-B941-89D5-6C8DA2536C31}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +97,10 @@
   </si>
   <si>
     <t>0965425124</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -485,7 +486,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -495,6 +496,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljchen/Desktop/Study/sport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morris/Desktop/sport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC4C920-4789-DE4E-A4E3-9CE7E5A8CEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CAF082-F6F6-814D-A391-85E2796C377B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="11400" xr2:uid="{B2558816-19B4-B941-89D5-6C8DA2536C31}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
